--- a/로스트아크 역분석/스킬_소서리스.xlsx
+++ b/로스트아크 역분석/스킬_소서리스.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\로스트아크 역분석\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\로스트아크 역분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEE4DB-5196-4738-A726-CA52A6B68C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E33CD721-A33E-4878-8E53-9CED14700A71}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="공용 컨트롤" sheetId="21" r:id="rId2"/>
     <sheet name="스킬" sheetId="20" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,12 +172,144 @@
   </si>
   <si>
     <t>[float]</t>
+  </si>
+  <si>
+    <t>블레이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬범주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용대기시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습득조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위파괴레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승량(비율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티획득량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원소모량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스팅시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀딩시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딜캔슬 가능지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종말의날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 범위 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -726,53 +857,53 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,18 +1218,664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDCBCBD-9895-43FF-B5EE-D44F5026C793}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="2.875" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>74</v>
+      </c>
+      <c r="O3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <f>K4-K3</f>
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>L4/K3*100</f>
+        <v>35.135135135135137</v>
+      </c>
+      <c r="O4">
+        <v>496</v>
+      </c>
+      <c r="P4">
+        <f>O4-O3</f>
+        <v>217</v>
+      </c>
+      <c r="Q4">
+        <f>P4/O3*100</f>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>121</v>
+      </c>
+      <c r="L5">
+        <f>K5-K4</f>
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <f>L5/K4*100</f>
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>635</v>
+      </c>
+      <c r="P5">
+        <f>O5-O4</f>
+        <v>139</v>
+      </c>
+      <c r="Q5">
+        <f>P5/O4*100</f>
+        <v>28.024193548387093</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <f>K6-K5</f>
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M14" si="0">L6/K5*100</f>
+        <v>20.66115702479339</v>
+      </c>
+      <c r="O6">
+        <v>743</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P14" si="1">O6-O5</f>
+        <v>108</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q14" si="2">P6/O5*100</f>
+        <v>17.00787401574803</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>187</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L14" si="3">K7-K6</f>
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>28.082191780821919</v>
+      </c>
+      <c r="O7">
+        <v>829</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>11.574697173620457</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>216</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>15.508021390374333</v>
+      </c>
+      <c r="O8">
+        <v>901</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>8.6851628468033777</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>266</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>23.148148148148149</v>
+      </c>
+      <c r="O9">
+        <v>961</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>6.659267480577137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>284</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>6.7669172932330826</v>
+      </c>
+      <c r="O10">
+        <v>1012</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>5.3069719042663897</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>341</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>20.070422535211268</v>
+      </c>
+      <c r="O11">
+        <v>1056</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>382</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>12.023460410557185</v>
+      </c>
+      <c r="O12">
+        <v>1096</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>3.7878787878787881</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>382</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1096</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>382</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1097</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>9.1240875912408759E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>119</v>
+      </c>
+      <c r="O16">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>161</v>
+      </c>
+      <c r="L17">
+        <f>K17-K16</f>
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <f>L17/K16*100</f>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="O17">
+        <v>2831</v>
+      </c>
+      <c r="P17">
+        <f>O17-O16</f>
+        <v>1237</v>
+      </c>
+      <c r="Q17">
+        <f>P17/O16*100</f>
+        <v>77.603513174404014</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>195</v>
+      </c>
+      <c r="L18">
+        <f>K18-K17</f>
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <f>L18/K17*100</f>
+        <v>21.118012422360248</v>
+      </c>
+      <c r="O18">
+        <v>3626</v>
+      </c>
+      <c r="P18">
+        <f>O18-O17</f>
+        <v>795</v>
+      </c>
+      <c r="Q18">
+        <f>P18/O17*100</f>
+        <v>28.081949841045567</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>235</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L27" si="4">K19-K18</f>
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M27" si="5">L19/K18*100</f>
+        <v>20.512820512820511</v>
+      </c>
+      <c r="O19">
+        <v>4243</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P27" si="6">O19-O18</f>
+        <v>617</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q27" si="7">P19/O18*100</f>
+        <v>17.015995587424161</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>301</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>28.085106382978726</v>
+      </c>
+      <c r="O20">
+        <v>4734</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>491</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>11.572000942729201</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>347</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>15.282392026578073</v>
+      </c>
+      <c r="O21">
+        <v>5146</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>412</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>8.7029995775242917</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>428</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>23.342939481268012</v>
+      </c>
+      <c r="O22">
+        <v>5489</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>343</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>6.6653711620676255</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>457</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>6.7757009345794383</v>
+      </c>
+      <c r="O23">
+        <v>5784</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>5.3743851339041724</v>
+      </c>
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>548</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>19.912472647702405</v>
+      </c>
+      <c r="O24">
+        <v>6029</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>4.23582295988935</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>614</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>12.043795620437956</v>
+      </c>
+      <c r="O25">
+        <v>6255</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>226</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>3.7485486813733622</v>
+      </c>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>614</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>6258</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>4.7961630695443645E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>614</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>6260</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>3.1959092361776922E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1109,26 +1886,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9979A7-4B3B-4787-B040-7E55A553CAAB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="17.875" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="9.375" customWidth="1"/>
+    <col min="24" max="24" width="9.75" customWidth="1"/>
+    <col min="25" max="25" width="15.375" customWidth="1"/>
+    <col min="26" max="26" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2279A53-DDD2-4B16-82D3-58C87C02059A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,17 +2015,19 @@
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="43" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="49"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1165,75 +2035,75 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
@@ -1248,11 +2118,11 @@
       <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1264,15 +2134,15 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="26"/>
@@ -1288,7 +2158,7 @@
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
-      <c r="B11" s="49"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="14"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -1302,7 +2172,7 @@
     </row>
     <row r="12" spans="1:12" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="21"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -1316,7 +2186,7 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
-      <c r="B13" s="52"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="13"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -1330,7 +2200,7 @@
     </row>
     <row r="14" spans="1:12" s="25" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -1351,7 +2221,7 @@
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="50"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="12">
         <v>1</v>
       </c>
@@ -1366,7 +2236,7 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="50"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="12">
         <v>2</v>
       </c>
@@ -1381,7 +2251,7 @@
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="50"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="12">
         <v>3</v>
       </c>
@@ -1396,7 +2266,7 @@
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="50"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="12">
         <v>4</v>
       </c>
@@ -1411,7 +2281,7 @@
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -1426,7 +2296,7 @@
       <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="12">
         <v>6</v>
       </c>
@@ -1441,7 +2311,7 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="12">
         <v>7</v>
       </c>
@@ -1456,7 +2326,7 @@
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="12">
         <v>8</v>
       </c>
@@ -1471,7 +2341,7 @@
       <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="12">
         <v>9</v>
       </c>
@@ -1486,7 +2356,7 @@
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="12">
         <v>10</v>
       </c>
@@ -1501,7 +2371,7 @@
       <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="12">
         <v>11</v>
       </c>
@@ -1517,7 +2387,7 @@
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="13">
         <v>12</v>
       </c>
